--- a/files/reports/rb/rb_stored_reports.xlsx
+++ b/files/reports/rb/rb_stored_reports.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView windowWidth="28800" windowHeight="12200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Итог" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Период</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Скидка за объем закупа</t>
   </si>
   <si>
-    <t>		-		</t>
+    <t>-</t>
   </si>
   <si>
     <t>4444.000000</t>
@@ -82,16 +82,173 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,10 +258,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5DEB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -127,21 +471,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="false">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -188,7 +824,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -223,7 +859,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -397,19 +1033,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +1076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -467,7 +1105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -496,7 +1134,7 @@
         <v>44646.1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -525,7 +1163,7 @@
         <v>44646.1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -554,7 +1192,7 @@
         <v>44646.1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -583,7 +1221,7 @@
         <v>44646.1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="8:9">
       <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
@@ -592,5 +1230,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>